--- a/DOM_Banner/output/dept_banner/Mohanad AlObaidi_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Mohanad AlObaidi_2023.xlsx
@@ -1799,7 +1799,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4206669628", "https://openalex.org/W3036314732", "https://openalex.org/W4205317059", "https://openalex.org/W3009669391", "https://openalex.org/W4382894326", "https://openalex.org/W3198183218", "https://openalex.org/W3176864053", "https://openalex.org/W3084498529", "https://openalex.org/W3020699490", "https://openalex.org/W4292098121")</t>
+          <t>c("https://openalex.org/W4206669628", "https://openalex.org/W3009669391", "https://openalex.org/W4205317059", "https://openalex.org/W3084498529", "https://openalex.org/W3036314732", "https://openalex.org/W4200329650", "https://openalex.org/W3127156785", "https://openalex.org/W3005417802", "https://openalex.org/W3171943759", "https://openalex.org/W4226296940")</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Mohanad AlObaidi_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Mohanad AlObaidi_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">Division of Infectious Diseases, Department of Internal Medicine, and Department of Medical Microbiology and Immunology, University of California Davis Medical Center, Sacramento, CA, USA; Hospital Clínic de Barcelona, Institut d'Investigacions Biomèdiques August Pi i Sunyer, University of Barcelona, Centro de Investigación Biomédica en Red Infecciosas, Barcelona, Spain; German Centre for Infection Research, Partner Site Bonn-Cologne, Cologne, Germany; Translational Research, Cologne Excellence Cluster on Cellular Stress Responses in Aging-Associated Diseases, Department I of Internal Medicine, Center for Integrated Oncology Aachen Bonn Cologne Düsseldorf and Excellence Center for Medical Mycology, and Clinical Trials Centre Cologne, Faculty of Medicine, University of Cologne and University Hospital Cologne, Cologne, Germany; Radboudumc Center of Infectious Diseases and Department of Medicine, Radboud University Medical Center, Nijmegen, Netherlands; Division of Pulmonary and Critical Care Medicine, Washington University, St Louis, MO, USA; Division of Infectious Disease, Department of Medicine, Medical College of Georgia, Augusta University, Augusta, GA, USA; Intensive Care Department, Brugman University Hospital, Université Libre de Bruxelles, University Brussels, Belgium; Intensive Care Unit, Centre Hospitalier Universitaire Université Catholique de Louvain Godinne, Université Catholique de Louvain, Belgium; Department of Health Sciences, University of Genoa and Policlinico San Martino Istituto di Ricovero e Cura a Carattere Scientific Hospital, Genoa, Italy; Clinical Research, Mercury Street Medical, Butte, MT, USA; Division of Infectious Disease and Tropical Medicine, Department of Medicine, Faculty of Medicine, Siriraj Hospital, Mahidol University, Bangkok, Thailand; University Multiprofile Hospital Active Treatment and Emergency Medicine NI Pirogov EAD, Medical University, Sofia, Bulgaria; Medical Affairs, Pharma Support America-Clinical Research Organization, Durham, NC, USA; Cidara Therapeutics, San Diego, CA, USA; Clinical Development, Cidara Therapeutics, San Diego, CA, USA; Division of Infectious Diseases, Department of Internal Medicine, University of Alabama at Birmingham, Birmingham, AL, USA; ; ; Division of Infectious Diseases, Department of Internal Medicine, and Department of Medical Microbiology and Immunology, University of California Davis Medical Center, Sacramento, CA, USA; ; ; ; ; ; ; ; ; ; ; ; ; ; Division of Infectious Disease and Tropical Medicine, Department of Medicine, Faculty of Medicine, Siriraj Hospital, Mahidol University, Bangkok, Thailand; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; Division of Infectious Disease and Tropical Medicine, Department of Medicine, Faculty of Medicine, Siriraj Hospital, Mahidol University, Bangkok, Thailand; ; Intensive Care Department, Brugman University Hospital, Université Libre de Bruxelles, University Brussels, Belgium; Intensive Care Unit, Centre Hospitalier Universitaire Université Catholique de Louvain Godinne, Université Catholique de Louvain, Belgium; Intensive Care Department, Brugman University Hospital, Université Libre de Bruxelles, University Brussels, Belgium; Intensive Care Unit, Centre Hospitalier Universitaire Université Catholique de Louvain Godinne, Université Catholique de Louvain, Belgium; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; Clinical Research, Mercury Street Medical, Butte, MT, USA; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4309967380</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Rezafungin versus caspofungin for treatment of candidaemia and invasive candidiasis (ReSTORE): a multicentre, double-blind, double-dummy, randomised phase 3 trial</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The Lancet</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0140-6736(22)02324-8</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36442484</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0140-6736(22)02324-8</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Infectious Disease, College of Medicine, University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, Banner University Medical Center, Tucson, Ariz; Division of Hematology and Oncology; Family and Community Medicine; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Infectious Disease, College of Medicine, University of Arizona, Tucson</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4298007826</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>The Prevention of COVID-19 in High-Risk Patients Using Tixagevimab–Cilgavimab (Evusheld): Real-World Experience at a Large Academic Center</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.08.019</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36181789</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.08.019</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, Department of Medicine, Duke University, Durham, North Carolina, United States of America.; Durham County Department of Public Health, Durham, North Carolina, United States of America.; Department of Laboratory Medicine, National Institutes of Health, Bethesda, Maryland, United States of America; Department of Veterinary Pathology and Microbiology, University of Nigeria, Nsukka, Nigeria; Division of Infectious Diseases, Department of Medicine, University of Arizona, Tucson, Arizona, United States of America; Division of Infectious Diseases, Medical University of Graz, Graz, Austria; Department of Public Health Sciences, UC Davis School of Medicine, Davis, California, United States of America; Division of Infectious Diseases and Global Public Health, Department of Medicine, School of Medicine, University of California, San Diego, California, United States of America; Division of Infectious Diseases and Global Public Health, Department of Medicine, School of Medicine, University of California, San Diego, California, United States of America; Division of Infectious Diseases, Medical University of Graz, Graz, Austria; Department of Internal Medicine, Division of Infectious Diseases, University of California Davis Medical Center, Sacramento, California, United States of America; Department of Medical Microbiology and Immunology, University of California Davis, Davis, California, United States of America</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313535151</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Race and ethnicity: Risk factors for fungal infections?</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-01-05</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>PLOS Pathogens</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Public Library of Science</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.ppat.1011025</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36602962</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.ppat.1011025</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, The Banner University Medical Center, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Infectious Diseases, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Infectious Diseases, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America; Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, United States of America; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, United States of America</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367309455</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Lack of effectiveness of Bebtelovimab monoclonal antibody among high-risk patients with SARS-Cov-2 Omicron during BA.2, BA.2.12.1 and BA.5 subvariants dominated era</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>PLOS ONE</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Public Library of Science</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0279326</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37115780</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0279326</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, College of Medicine, University of Arizona, Tucson; Division of Nephrology, Banner University Medical Center, Tucson, Arizona; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Nephrology, College of Medicine, University of Arizona, Tucson; Division of Infectious Diseases, College of Medicine, University of Arizona, Tucson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323671354</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>The Impact of Nirmatrelvir-Ritonavir in Reducing Hospitalizations Among High-Risk Patients With SARS-CoV-2 During the Omicron Predominant Era</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.02.022</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36898600</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2023.02.022</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, College of Medicine, University of Arizona, 1501 N Campbell Avenue, P.O. Box 245022, Tucson, AZ 85724, USA; Division of Infectious Diseases, College of Medicine, University of Arizona, 1501 N Campbell Avenue, P.O. Box 245022, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367051266</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Diagnostic Approach to Coccidioidomycosis in Solid Organ Transplant Recipients</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-04-26</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Journal of Fungi</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jof9050513</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37233224</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jof9050513</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4376471759</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Effectiveness of Casirivimab-Imdevimab and Sotrovimab Monoclonal Antibody Treatment among High-Risk Patients with Sars-Cov-2 Infection: A Real-World Experience</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Archives of clinical and biomedical research</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.26502/acbr.50170347</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.26502/acbr.50170347</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, College of Medicine, University of Arizona , Tucson, AZ; Division of Infectious Diseases, University of Texas Medical School at Houston , Houston, TX; Department of Pharmacy Practice &amp; Science, University of Arizona , Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383709535</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Trends of Azole Antifungal Prescription in the United States: Medicare Part D Provider Utilization and Payment Data Analysis</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-07-10</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofad345</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37539063</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofad345</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, University of Arizona College of Medicine , Tucson, Arizona , USA; Department of Pathology, University of Arizona College of Medicine , Tucson, Arizona , USA; Division of Infectious Diseases, University of Arizona College of Medicine , Tucson, Arizona , USA; Fungus Testing Laboratory, Department of Pathology and Laboratory Medicine, University of Texas Health Science Center at San Antonio , San Antonio, Texas , USA; Division of Infectious Diseases, University of Arizona College of Medicine , Tucson, Arizona , USA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387431858</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;i&gt;Coccidioides&lt;/i&gt; species antifungal susceptibility testing: Experience from a large healthcare system in the endemic region</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Medical Mycology</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/mmy/myad104</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37804176</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/mmy/myad104</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Cambridge Health Alliance , Melrose, Massachusetts; University of Arizona , Tucson, Arizona; University of Arizona, College of Medicine , Tucson, tucson, Arizona; University of Arizona - Tucson , Tucson, Arizona; University of Arizona College of Medicine-Tucson , Tucson, Arizona; University of Arizona , Tucson, Arizona; University of Arizona , Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389031440</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>823. Clinical Outcomes of Coccidioidomycosis in Patients Requiring Intensive Care Unit Hospitalization</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofad500.868</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofad500.868</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
